--- a/python/lin/SD t1=6 t2=2.xlsx
+++ b/python/lin/SD t1=6 t2=2.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.84e+00</t>
+          <t>5.93e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0903</t>
+          <t>0.102</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
+          <t>6.15e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.02e+00</t>
+          <t>5.98e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0963</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.36e+00</t>
+          <t>2.27e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.339</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.16e+00</t>
+          <t>1.33e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.364</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.87e+00</t>
+          <t>2.06e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.372</t>
+          <t>0.358</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.19e+00</t>
+          <t>1.15e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.171</t>
+          <t>0.192</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.09e+00</t>
+          <t>6.68e-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.206</t>
+          <t>0.183</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9.34e-01</t>
+          <t>1.03e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.185</t>
+          <t>0.179</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.49e-01</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.000494</t>
+          <t>0.000547</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,17 +624,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00058</t>
+          <t>0.000528</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9.50e-01</t>
+          <t>9.51e-01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.000534</t>
+          <t>0.000505</t>
         </is>
       </c>
     </row>

--- a/python/lin/SD t1=6 t2=2.xlsx
+++ b/python/lin/SD t1=6 t2=2.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.93e+00</t>
+          <t>5.83e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.102</t>
+          <t>0.103</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.15e+00</t>
+          <t>6.04e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0987</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.98e+00</t>
+          <t>6.05e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.0963</t>
+          <t>0.0932</t>
         </is>
       </c>
     </row>
@@ -525,17 +525,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.27e+00</t>
+          <t>2.84e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.396</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.33e+00</t>
+          <t>1.72e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -545,12 +545,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.06e+00</t>
+          <t>1.56e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.341</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.15e+00</t>
+          <t>1.43e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.192</t>
+          <t>0.199</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.68e-01</t>
+          <t>8.71e-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.183</t>
+          <t>0.184</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.03e+00</t>
+          <t>7.89e-01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.179</t>
+          <t>0.172</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.000547</t>
+          <t>0.000549</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,17 +624,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000528</t>
+          <t>0.00052</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9.51e-01</t>
+          <t>9.49e-01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.000505</t>
+          <t>0.000498</t>
         </is>
       </c>
     </row>

--- a/python/lin/SD t1=6 t2=2.xlsx
+++ b/python/lin/SD t1=6 t2=2.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.83e+00</t>
+          <t>5.95e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.102</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.90e+00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.03e+00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>0.103</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6.04e+00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.0987</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.05e+00</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.0932</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.84e+00</t>
+          <t>2.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.396</t>
+          <t>0.379</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.72e+00</t>
+          <t>2.01e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.364</t>
+          <t>0.395</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.56e+00</t>
+          <t>1.36e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.341</t>
+          <t>0.374</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.43e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.199</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.71e-01</t>
+          <t>1.02e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.184</t>
+          <t>0.201</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7.89e-01</t>
+          <t>6.86e-01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.172</t>
+          <t>0.189</t>
         </is>
       </c>
     </row>
@@ -609,32 +609,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>9.51e-01</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.000538</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9.49e-01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.000573</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>9.50e-01</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.000549</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9.50e-01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.00052</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>9.49e-01</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.000498</t>
+          <t>0.000552</t>
         </is>
       </c>
     </row>

--- a/python/lin/SD t1=6 t2=2.xlsx
+++ b/python/lin/SD t1=6 t2=2.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.95e+00</t>
+          <t>6.01e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.102</t>
+          <t>0.0999</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.90e+00</t>
+          <t>6.01e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.106</t>
+          <t>0.0973</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.03e+00</t>
+          <t>5.85e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.103</t>
+          <t>0.104</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.00e+00</t>
+          <t>1.44e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.379</t>
+          <t>0.364</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.01e+00</t>
+          <t>2.37e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.395</t>
+          <t>0.364</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.36e+00</t>
+          <t>1.97e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.374</t>
+          <t>0.387</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>7.22e-01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.182</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.02e+00</t>
+          <t>1.20e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.201</t>
+          <t>0.184</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.86e-01</t>
+          <t>9.82e-01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.189</t>
+          <t>0.193</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.51e-01</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.000538</t>
+          <t>0.000536</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.49e-01</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000573</t>
+          <t>0.000516</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.000552</t>
+          <t>0.000559</t>
         </is>
       </c>
     </row>

--- a/python/lin/SD t1=6 t2=2.xlsx
+++ b/python/lin/SD t1=6 t2=2.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.01e+00</t>
+          <t>5.90e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0999</t>
+          <t>0.102</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.01e+00</t>
+          <t>5.93e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0973</t>
+          <t>0.107</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.85e+00</t>
+          <t>6.02e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.44e+00</t>
+          <t>2.44e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.364</t>
+          <t>0.385</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.37e+00</t>
+          <t>2.20e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.364</t>
+          <t>0.399</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.97e+00</t>
+          <t>1.75e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.387</t>
+          <t>0.384</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7.22e-01</t>
+          <t>1.22e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.182</t>
+          <t>0.193</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.20e+00</t>
+          <t>1.11e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.184</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9.82e-01</t>
+          <t>8.89e-01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.193</t>
+          <t>0.195</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.000536</t>
+          <t>0.000549</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000516</t>
+          <t>0.00057</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.000559</t>
+          <t>0.00056</t>
         </is>
       </c>
     </row>

--- a/python/lin/SD t1=6 t2=2.xlsx
+++ b/python/lin/SD t1=6 t2=2.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.90e+00</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.112</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.95e+00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>0.102</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.93e+00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.107</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.02e+00</t>
+          <t>6.14e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.44e+00</t>
+          <t>2.24e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.385</t>
+          <t>0.418</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.20e+00</t>
+          <t>1.79e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.399</t>
+          <t>0.377</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.75e+00</t>
+          <t>1.50e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.384</t>
+          <t>0.366</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.22e+00</t>
+          <t>1.13e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.193</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.11e+00</t>
+          <t>8.92e-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.188</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.89e-01</t>
+          <t>7.59e-01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.195</t>
+          <t>0.185</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.000549</t>
+          <t>0.000588</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00057</t>
+          <t>0.000544</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.00056</t>
+          <t>0.000525</t>
         </is>
       </c>
     </row>
